--- a/trend_results/Lakes/LakeWiritoaComposite_a033f773e2.xlsx
+++ b/trend_results/Lakes/LakeWiritoaComposite_a033f773e2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="52">
   <si>
     <t>site name</t>
   </si>
@@ -118,12 +118,15 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>Lake</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
     <t>Likely improving</t>
   </si>
   <si>
@@ -133,10 +136,13 @@
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>Extremely unlikely increasing</t>
+    <t>As likely as not increasing</t>
   </si>
   <si>
     <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
   </si>
   <si>
     <t>Whanganui District</t>
@@ -521,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,37 +621,37 @@
         <v>32</v>
       </c>
       <c r="F2">
-        <v>0.780353957576252</v>
+        <v>0.53391925194052</v>
       </c>
       <c r="G2">
-        <v>0.127659574468085</v>
+        <v>0.134615384615385</v>
       </c>
       <c r="H2">
-        <v>0.617021276595745</v>
+        <v>0.596153846153846</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>8.9</v>
+        <v>7.6</v>
       </c>
       <c r="K2">
-        <v>-0.435481582562175</v>
+        <v>-0.0504488950276244</v>
       </c>
       <c r="L2">
-        <v>-2.07652885292725</v>
+        <v>-1.29357774006973</v>
       </c>
       <c r="M2">
-        <v>1.1601440787188</v>
+        <v>1.04839382726197</v>
       </c>
       <c r="N2">
-        <v>-4.89305148946264</v>
+        <v>-0.663801250363478</v>
       </c>
       <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
         <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>36</v>
       </c>
       <c r="Q2">
         <v>1778567.25321</v>
@@ -654,19 +660,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="S2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -686,37 +692,37 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>0.103445459351854</v>
+        <v>0.07618636044759899</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.911111111111111</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.56</v>
+        <v>2.605</v>
       </c>
       <c r="K3">
-        <v>-0.171833046471601</v>
+        <v>-0.185802186938891</v>
       </c>
       <c r="L3">
-        <v>-0.3684315811661</v>
+        <v>-0.352396470402341</v>
       </c>
       <c r="M3">
-        <v>0.048039539538752</v>
+        <v>0.0301760155139003</v>
       </c>
       <c r="N3">
-        <v>-6.7122283777969</v>
+        <v>-7.13252157155051</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q3">
         <v>1778567.25321</v>
@@ -725,19 +731,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -757,19 +763,19 @@
         <v>33</v>
       </c>
       <c r="F4">
-        <v>0.876981445521788</v>
+        <v>0.756253124466001</v>
       </c>
       <c r="G4">
-        <v>0.531914893617021</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="H4">
-        <v>0.148936170212766</v>
+        <v>0.173076923076923</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -784,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q4">
         <v>1778567.25321</v>
@@ -796,19 +802,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="S4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -825,40 +831,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>0.10055245990624</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.006851250601966</v>
+      </c>
+      <c r="K5">
+        <v>0.0015099359700723</v>
+      </c>
+      <c r="L5">
+        <v>-0.0005396351182874</v>
+      </c>
+      <c r="M5">
+        <v>0.0030023197282457</v>
+      </c>
+      <c r="N5">
+        <v>22.0388372546033</v>
+      </c>
+      <c r="O5" t="s">
         <v>34</v>
       </c>
-      <c r="F5">
-        <v>0.877743875023311</v>
-      </c>
-      <c r="G5">
-        <v>0.709677419354839</v>
-      </c>
-      <c r="H5">
-        <v>0.354838709677419</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>0.005</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>35</v>
-      </c>
       <c r="P5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q5">
         <v>1778567.25321</v>
@@ -867,19 +873,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="S5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -899,37 +905,37 @@
         <v>33</v>
       </c>
       <c r="F6">
-        <v>0.0230264281103409</v>
+        <v>0.0243003426617076</v>
       </c>
       <c r="G6">
-        <v>0.425531914893617</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="H6">
-        <v>0.531914893617021</v>
+        <v>0.557692307692308</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.008</v>
+        <v>0.011</v>
       </c>
       <c r="K6">
-        <v>0.0010583547971667</v>
+        <v>0.0018963288660534</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0038477572484536</v>
+        <v>0.0067078835826787</v>
       </c>
       <c r="N6">
-        <v>13.2294349645847</v>
+        <v>17.2393533277588</v>
       </c>
       <c r="O6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q6">
         <v>1778567.25321</v>
@@ -938,19 +944,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="S6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -964,43 +970,43 @@
         <v>5</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
       </c>
       <c r="F7">
-        <v>0.010768762178416</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.880952380952381</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.66</v>
+        <v>7.64</v>
       </c>
       <c r="K7">
-        <v>-0.0920798319327731</v>
+        <v>0.010303244005642</v>
       </c>
       <c r="L7">
-        <v>-0.163892223284738</v>
+        <v>-0.0437778854030701</v>
       </c>
       <c r="M7">
-        <v>-0.0307351354561323</v>
+        <v>0.0592892236789814</v>
       </c>
       <c r="N7">
-        <v>-1.20208657875683</v>
+        <v>0.134859214733534</v>
       </c>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7">
         <v>1778567.25321</v>
@@ -1009,16 +1015,16 @@
         <v>5572955.19428</v>
       </c>
       <c r="S7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1038,37 +1044,37 @@
         <v>32</v>
       </c>
       <c r="F8">
-        <v>3.24768990036034E-06</v>
+        <v>2.70364285128856E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.659574468085106</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.85</v>
+        <v>0.885</v>
       </c>
       <c r="K8">
-        <v>0.0553409090909091</v>
+        <v>0.0467770009840905</v>
       </c>
       <c r="L8">
-        <v>0.0381885963570372</v>
+        <v>0.0271440729581972</v>
       </c>
       <c r="M8">
-        <v>0.07610680526438281</v>
+        <v>0.0652342609067596</v>
       </c>
       <c r="N8">
-        <v>6.51069518716578</v>
+        <v>5.28553683436051</v>
       </c>
       <c r="O8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q8">
         <v>1778567.25321</v>
@@ -1077,19 +1083,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="S8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1109,37 +1115,37 @@
         <v>32</v>
       </c>
       <c r="F9">
-        <v>1.30665149885614E-05</v>
+        <v>3.43804980000281E-05</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.659574468085106</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.044</v>
+        <v>0.0465</v>
       </c>
       <c r="K9">
-        <v>0.0074162436548223</v>
+        <v>0.0058701080041709</v>
       </c>
       <c r="L9">
-        <v>0.0049176005138845</v>
+        <v>0.003579953336646</v>
       </c>
       <c r="M9">
-        <v>0.009938775510203999</v>
+        <v>0.0082139341559171</v>
       </c>
       <c r="N9">
-        <v>16.8550992155053</v>
+        <v>12.6238881810127</v>
       </c>
       <c r="O9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q9">
         <v>1778567.25321</v>
@@ -1148,19 +1154,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="S9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1174,43 +1180,43 @@
         <v>10</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>0.719239823559471</v>
+        <v>0.481746440481818</v>
       </c>
       <c r="G10">
-        <v>0.125</v>
+        <v>0.121621621621622</v>
       </c>
       <c r="H10">
-        <v>0.59375</v>
+        <v>0.5540540540540539</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K10">
-        <v>-0.19895947968927</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>-0.955714353301684</v>
+        <v>-0.486142196230614</v>
       </c>
       <c r="M10">
-        <v>0.427599992831153</v>
+        <v>0.723288719320294</v>
       </c>
       <c r="N10">
-        <v>-2.21066088543634</v>
+        <v>0</v>
       </c>
       <c r="O10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" t="s">
         <v>35</v>
-      </c>
-      <c r="P10" t="s">
-        <v>36</v>
       </c>
       <c r="Q10">
         <v>1778567.25321</v>
@@ -1219,19 +1225,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="S10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,7 +1245,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1248,40 +1254,40 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>0.828175582324381</v>
+        <v>0.929525616604587</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.125</v>
+        <v>0.893939393939394</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>2.475</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.0794414236282749</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-0.0088842658686812</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.156614351883593</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>3.20975449003131</v>
       </c>
       <c r="O11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q11">
         <v>1778567.25321</v>
@@ -1290,19 +1296,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="S11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,7 +1316,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1322,19 +1328,19 @@
         <v>33</v>
       </c>
       <c r="F12">
-        <v>0.19113025909046</v>
+        <v>0.5716592167953241</v>
       </c>
       <c r="G12">
-        <v>0.421875</v>
+        <v>0.472972972972973</v>
       </c>
       <c r="H12">
-        <v>0.515625</v>
+        <v>0.148648648648649</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.008</v>
+        <v>4</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1343,16 +1349,16 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.0008572875878956</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="s">
         <v>35</v>
-      </c>
-      <c r="P12" t="s">
-        <v>37</v>
       </c>
       <c r="Q12">
         <v>1778567.25321</v>
@@ -1361,19 +1367,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="S12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,7 +1387,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -1390,40 +1396,40 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13">
-        <v>0.148325877080125</v>
+        <v>0.113182792439703</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.405405405405405</v>
       </c>
       <c r="H13">
-        <v>0.640625</v>
+        <v>0.513513513513513</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0.89</v>
+        <v>0.0105</v>
       </c>
       <c r="K13">
-        <v>0.0096652560353592</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>-0.0042235523606978</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.0258372037156642</v>
+        <v>0.0013387051059885</v>
       </c>
       <c r="N13">
-        <v>1.08598382419767</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q13">
         <v>1778567.25321</v>
@@ -1432,19 +1438,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="S13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,7 +1458,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -1464,37 +1470,37 @@
         <v>32</v>
       </c>
       <c r="F14">
-        <v>0.104146640754128</v>
+        <v>0.279683895133032</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.609375</v>
+        <v>0.594594594594595</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.046</v>
+        <v>0.9</v>
       </c>
       <c r="K14">
-        <v>0.00143044114274</v>
+        <v>0.004179061784897</v>
       </c>
       <c r="L14">
-        <v>-0.0003886191595048</v>
+        <v>-0.006788551491635</v>
       </c>
       <c r="M14">
-        <v>0.0031753853381357</v>
+        <v>0.0193998028532521</v>
       </c>
       <c r="N14">
-        <v>3.10965465813048</v>
+        <v>0.464340198321892</v>
       </c>
       <c r="O14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q14">
         <v>1778567.25321</v>
@@ -1503,19 +1509,90 @@
         <v>5572955.19428</v>
       </c>
       <c r="S14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>0.187486890920226</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.608108108108108</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.047</v>
+      </c>
+      <c r="K15">
+        <v>0.0008131121994657</v>
+      </c>
+      <c r="L15">
+        <v>-0.0008959118473798</v>
+      </c>
+      <c r="M15">
+        <v>0.0024863282624279</v>
+      </c>
+      <c r="N15">
+        <v>1.73002595631004</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15">
+        <v>1778567.25321</v>
+      </c>
+      <c r="R15">
+        <v>5572955.19428</v>
+      </c>
+      <c r="S15" t="s">
         <v>43</v>
       </c>
-      <c r="V14" t="s">
+      <c r="T15" t="s">
         <v>44</v>
       </c>
-      <c r="W14" t="s">
-        <v>49</v>
+      <c r="U15" t="s">
+        <v>45</v>
+      </c>
+      <c r="V15" t="s">
+        <v>46</v>
+      </c>
+      <c r="W15" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/trend_results/Lakes/LakeWiritoaComposite_a033f773e2.xlsx
+++ b/trend_results/Lakes/LakeWiritoaComposite_a033f773e2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="54">
   <si>
     <t>site name</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Lake Wiritoa (Composite)</t>
   </si>
   <si>
+    <t>Cyanobacteria Biovolume</t>
+  </si>
+  <si>
     <t>Chlorophyll A</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>Lake</t>
   </si>
   <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
@@ -133,9 +139,6 @@
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
     <t>As likely as not increasing</t>
   </si>
   <si>
@@ -155,6 +158,9 @@
   </si>
   <si>
     <t>West_4</t>
+  </si>
+  <si>
+    <t>mg chl-a /m3</t>
   </si>
   <si>
     <t>mg/m2</t>
@@ -527,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,40 +624,40 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>0.53391925194052</v>
+        <v>0.0208925842019611</v>
       </c>
       <c r="G2">
-        <v>0.134615384615385</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.596153846153846</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.6</v>
+        <v>0.2933</v>
       </c>
       <c r="K2">
-        <v>-0.0504488950276244</v>
+        <v>0.0721317737430168</v>
       </c>
       <c r="L2">
-        <v>-1.29357774006973</v>
+        <v>0.0055575672426742</v>
       </c>
       <c r="M2">
-        <v>1.04839382726197</v>
+        <v>0.26669939475311</v>
       </c>
       <c r="N2">
-        <v>-0.663801250363478</v>
+        <v>24.5931720910388</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q2">
         <v>1778567.25321</v>
@@ -660,19 +666,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="S2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -686,43 +692,43 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>0.07618636044759899</v>
+        <v>0.53391925194052</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.134615384615385</v>
       </c>
       <c r="H3">
-        <v>0.916666666666667</v>
+        <v>0.596153846153846</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>2.605</v>
+        <v>7.6</v>
       </c>
       <c r="K3">
-        <v>-0.185802186938891</v>
+        <v>-0.0504488950276244</v>
       </c>
       <c r="L3">
-        <v>-0.352396470402341</v>
+        <v>-1.29357774006973</v>
       </c>
       <c r="M3">
-        <v>0.0301760155139003</v>
+        <v>1.04839382726197</v>
       </c>
       <c r="N3">
-        <v>-7.13252157155051</v>
+        <v>-0.663801250363478</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q3">
         <v>1778567.25321</v>
@@ -731,19 +737,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="S3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -763,37 +769,37 @@
         <v>33</v>
       </c>
       <c r="F4">
-        <v>0.756253124466001</v>
+        <v>0.07618636044759899</v>
       </c>
       <c r="G4">
-        <v>0.461538461538462</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.173076923076923</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>2.605</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-0.185802186938891</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>-0.352396470402341</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0301760155139003</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-7.13252157155051</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q4">
         <v>1778567.25321</v>
@@ -802,19 +808,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="S4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -831,40 +837,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>0.10055245990624</v>
+        <v>0.756253124466001</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="H5">
+        <v>0.173076923076923</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
-        <v>0.006851250601966</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>0.0015099359700723</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>-0.0005396351182874</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0030023197282457</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>22.0388372546033</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q5">
         <v>1778567.25321</v>
@@ -873,19 +879,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="S5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -905,37 +911,37 @@
         <v>33</v>
       </c>
       <c r="F6">
-        <v>0.0243003426617076</v>
+        <v>0.10055245990624</v>
       </c>
       <c r="G6">
-        <v>0.384615384615385</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.557692307692308</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.011</v>
+        <v>0.006851250601966</v>
       </c>
       <c r="K6">
-        <v>0.0018963288660534</v>
+        <v>0.0015099359700723</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-0.0005396351182874</v>
       </c>
       <c r="M6">
-        <v>0.0067078835826787</v>
+        <v>0.0030023197282457</v>
       </c>
       <c r="N6">
-        <v>17.2393533277588</v>
+        <v>22.0388372546033</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q6">
         <v>1778567.25321</v>
@@ -944,19 +950,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="S6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -970,43 +976,43 @@
         <v>5</v>
       </c>
       <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7">
+        <v>0.0243003426617076</v>
+      </c>
+      <c r="G7">
+        <v>0.384615384615385</v>
+      </c>
+      <c r="H7">
+        <v>0.557692307692308</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0.91304347826087</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
-        <v>7.64</v>
+        <v>0.011</v>
       </c>
       <c r="K7">
-        <v>0.010303244005642</v>
+        <v>0.0018963288660534</v>
       </c>
       <c r="L7">
-        <v>-0.0437778854030701</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.0592892236789814</v>
+        <v>0.0067078835826787</v>
       </c>
       <c r="N7">
-        <v>0.134859214733534</v>
+        <v>17.2393533277588</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q7">
         <v>1778567.25321</v>
@@ -1015,16 +1021,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="S7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V7" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="W7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1038,40 +1047,40 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8">
-        <v>2.70364285128856E-05</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.634615384615385</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.885</v>
+        <v>7.64</v>
       </c>
       <c r="K8">
-        <v>0.0467770009840905</v>
+        <v>0.010303244005642</v>
       </c>
       <c r="L8">
-        <v>0.0271440729581972</v>
+        <v>-0.0437778854030701</v>
       </c>
       <c r="M8">
-        <v>0.0652342609067596</v>
+        <v>0.0592892236789814</v>
       </c>
       <c r="N8">
-        <v>5.28553683436051</v>
+        <v>0.134859214733534</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P8" t="s">
         <v>41</v>
@@ -1083,19 +1092,16 @@
         <v>5572955.19428</v>
       </c>
       <c r="S8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V8" t="s">
-        <v>46</v>
-      </c>
-      <c r="W8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1112,40 +1118,40 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>3.43804980000281E-05</v>
+        <v>2.70364285128856E-05</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.673076923076923</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0465</v>
+        <v>0.885</v>
       </c>
       <c r="K9">
-        <v>0.0058701080041709</v>
+        <v>0.0467770009840905</v>
       </c>
       <c r="L9">
-        <v>0.003579953336646</v>
+        <v>0.0271440729581972</v>
       </c>
       <c r="M9">
-        <v>0.0082139341559171</v>
+        <v>0.0652342609067596</v>
       </c>
       <c r="N9">
-        <v>12.6238881810127</v>
+        <v>5.28553683436051</v>
       </c>
       <c r="O9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q9">
         <v>1778567.25321</v>
@@ -1154,19 +1160,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="S9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1174,49 +1180,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>33</v>
       </c>
       <c r="F10">
-        <v>0.481746440481818</v>
+        <v>3.43804980000281E-05</v>
       </c>
       <c r="G10">
-        <v>0.121621621621622</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.5540540540540539</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>8.800000000000001</v>
+        <v>0.0465</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.0058701080041709</v>
       </c>
       <c r="L10">
-        <v>-0.486142196230614</v>
+        <v>0.003579953336646</v>
       </c>
       <c r="M10">
-        <v>0.723288719320294</v>
+        <v>0.0082139341559171</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>12.6238881810127</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q10">
         <v>1778567.25321</v>
@@ -1225,19 +1231,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="S10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1251,43 +1257,43 @@
         <v>10</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>0.929525616604587</v>
+        <v>0.481746440481818</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.121621621621622</v>
       </c>
       <c r="H11">
-        <v>0.893939393939394</v>
+        <v>0.5540540540540539</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>2.475</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K11">
-        <v>0.0794414236282749</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>-0.0088842658686812</v>
+        <v>-0.486142196230614</v>
       </c>
       <c r="M11">
-        <v>0.156614351883593</v>
+        <v>0.723288719320294</v>
       </c>
       <c r="N11">
-        <v>3.20975449003131</v>
+        <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q11">
         <v>1778567.25321</v>
@@ -1296,19 +1302,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="S11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1328,37 +1334,37 @@
         <v>33</v>
       </c>
       <c r="F12">
-        <v>0.5716592167953241</v>
+        <v>0.929525616604587</v>
       </c>
       <c r="G12">
-        <v>0.472972972972973</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.148648648648649</v>
+        <v>0.893939393939394</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>2.475</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.0794414236282749</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-0.0088842658686812</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.156614351883593</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>3.20975449003131</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q12">
         <v>1778567.25321</v>
@@ -1367,19 +1373,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="S12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1387,7 +1393,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -1396,22 +1402,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13">
-        <v>0.113182792439703</v>
+        <v>0.5716592167953241</v>
       </c>
       <c r="G13">
-        <v>0.405405405405405</v>
+        <v>0.472972972972973</v>
       </c>
       <c r="H13">
-        <v>0.513513513513513</v>
+        <v>0.148648648648649</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.0105</v>
+        <v>4</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1420,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.0013387051059885</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q13">
         <v>1778567.25321</v>
@@ -1438,19 +1444,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="S13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1458,7 +1464,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -1467,40 +1473,40 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14">
-        <v>0.279683895133032</v>
+        <v>0.113182792439703</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.405405405405405</v>
       </c>
       <c r="H14">
-        <v>0.594594594594595</v>
+        <v>0.513513513513513</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9</v>
+        <v>0.0105</v>
       </c>
       <c r="K14">
-        <v>0.004179061784897</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>-0.006788551491635</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.0193998028532521</v>
+        <v>0.0013387051059885</v>
       </c>
       <c r="N14">
-        <v>0.464340198321892</v>
+        <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q14">
         <v>1778567.25321</v>
@@ -1509,19 +1515,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="S14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1538,40 +1544,40 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15">
-        <v>0.187486890920226</v>
+        <v>0.279683895133032</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.608108108108108</v>
+        <v>0.594594594594595</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.047</v>
+        <v>0.9</v>
       </c>
       <c r="K15">
-        <v>0.0008131121994657</v>
+        <v>0.004179061784897</v>
       </c>
       <c r="L15">
-        <v>-0.0008959118473798</v>
+        <v>-0.006788551491635</v>
       </c>
       <c r="M15">
-        <v>0.0024863282624279</v>
+        <v>0.0193998028532521</v>
       </c>
       <c r="N15">
-        <v>1.73002595631004</v>
+        <v>0.464340198321892</v>
       </c>
       <c r="O15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q15">
         <v>1778567.25321</v>
@@ -1580,19 +1586,90 @@
         <v>5572955.19428</v>
       </c>
       <c r="S15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T15" t="s">
+        <v>45</v>
+      </c>
+      <c r="U15" t="s">
+        <v>46</v>
+      </c>
+      <c r="V15" t="s">
+        <v>47</v>
+      </c>
+      <c r="W15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16">
+        <v>0.187486890920226</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0.608108108108108</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.047</v>
+      </c>
+      <c r="K16">
+        <v>0.0008131121994657</v>
+      </c>
+      <c r="L16">
+        <v>-0.0008959118473798</v>
+      </c>
+      <c r="M16">
+        <v>0.0024863282624279</v>
+      </c>
+      <c r="N16">
+        <v>1.73002595631004</v>
+      </c>
+      <c r="O16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16">
+        <v>1778567.25321</v>
+      </c>
+      <c r="R16">
+        <v>5572955.19428</v>
+      </c>
+      <c r="S16" t="s">
         <v>44</v>
       </c>
-      <c r="U15" t="s">
+      <c r="T16" t="s">
         <v>45</v>
       </c>
-      <c r="V15" t="s">
+      <c r="U16" t="s">
         <v>46</v>
       </c>
-      <c r="W15" t="s">
-        <v>51</v>
+      <c r="V16" t="s">
+        <v>47</v>
+      </c>
+      <c r="W16" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
